--- a/players.xlsx
+++ b/players.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4770,7 +4770,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -6289,7 +6289,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -7560,7 +7560,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -7684,7 +7684,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -8242,7 +8242,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -8986,7 +8986,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9079,7 +9079,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9234,7 +9234,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -9389,7 +9389,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9544,7 +9544,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9606,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9792,7 +9792,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9823,7 +9823,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10102,7 +10102,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -10164,7 +10164,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10350,7 +10350,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -10598,7 +10598,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10722,7 +10722,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -10753,7 +10753,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -10784,7 +10784,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10939,7 +10939,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11032,7 +11032,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -11063,7 +11063,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11094,7 +11094,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11218,7 +11218,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -11280,7 +11280,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -11404,7 +11404,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11466,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -11559,7 +11559,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11621,7 +11621,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11714,7 +11714,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -11869,7 +11869,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -12024,7 +12024,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -12148,7 +12148,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -12179,7 +12179,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -12210,7 +12210,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -12272,7 +12272,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -12303,7 +12303,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -12334,7 +12334,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12396,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -12427,7 +12427,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -12458,7 +12458,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -12520,7 +12520,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -12582,7 +12582,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -12644,7 +12644,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -12737,7 +12737,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -12830,7 +12830,7 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -12861,7 +12861,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -12923,7 +12923,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -12954,7 +12954,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -13047,7 +13047,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -13109,7 +13109,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -13202,7 +13202,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -13264,7 +13264,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13295,7 +13295,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Underperformance</t>
         </is>
       </c>
     </row>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13419,7 +13419,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -13450,7 +13450,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -13481,7 +13481,7 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>✓✓</t>
+          <t>Slight Overperformance</t>
         </is>
       </c>
     </row>
@@ -13512,7 +13512,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13574,7 +13574,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13698,7 +13698,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -13853,7 +13853,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>✓✓✓</t>
+          <t>Consistent With Prediction</t>
         </is>
       </c>
     </row>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -13915,7 +13915,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Underperforming</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>Overperforming</t>
         </is>
       </c>
     </row>
